--- a/MVPLT/data/张炀-每日权重.xlsx
+++ b/MVPLT/data/张炀-每日权重.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,6 +647,261 @@
         <v>0.143277705621975</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B16">
+        <v>0.1798440292992008</v>
+      </c>
+      <c r="C16">
+        <v>0.5792129716820223</v>
+      </c>
+      <c r="D16">
+        <v>0.09757730289583547</v>
+      </c>
+      <c r="E16">
+        <v>0.1433656961229414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>43074</v>
+      </c>
+      <c r="B17">
+        <v>0.1795204903132141</v>
+      </c>
+      <c r="C17">
+        <v>0.5796088867912129</v>
+      </c>
+      <c r="D17">
+        <v>0.09743846817445176</v>
+      </c>
+      <c r="E17">
+        <v>0.1434321547211213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>43075</v>
+      </c>
+      <c r="B18">
+        <v>0.1794256789447485</v>
+      </c>
+      <c r="C18">
+        <v>0.5810266688393928</v>
+      </c>
+      <c r="D18">
+        <v>0.09579019504971351</v>
+      </c>
+      <c r="E18">
+        <v>0.1437574571661454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>43076</v>
+      </c>
+      <c r="B19">
+        <v>0.1778975803553055</v>
+      </c>
+      <c r="C19">
+        <v>0.5817756157221302</v>
+      </c>
+      <c r="D19">
+        <v>0.09638047182968926</v>
+      </c>
+      <c r="E19">
+        <v>0.1439463320928751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>43077</v>
+      </c>
+      <c r="B20">
+        <v>0.179063378513146</v>
+      </c>
+      <c r="C20">
+        <v>0.5803343181314538</v>
+      </c>
+      <c r="D20">
+        <v>0.09699021641010408</v>
+      </c>
+      <c r="E20">
+        <v>0.1436120869452961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>43080</v>
+      </c>
+      <c r="B21">
+        <v>0.1812817002719196</v>
+      </c>
+      <c r="C21">
+        <v>0.5781702349668191</v>
+      </c>
+      <c r="D21">
+        <v>0.09740337303067213</v>
+      </c>
+      <c r="E21">
+        <v>0.1431446917305892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>43081</v>
+      </c>
+      <c r="B22">
+        <v>0.1797492037266605</v>
+      </c>
+      <c r="C22">
+        <v>0.579982025186527</v>
+      </c>
+      <c r="D22">
+        <v>0.0966237701231083</v>
+      </c>
+      <c r="E22">
+        <v>0.1436450009637041</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>43082</v>
+      </c>
+      <c r="B23">
+        <v>0.1810601627215347</v>
+      </c>
+      <c r="C23">
+        <v>0.5794614641098567</v>
+      </c>
+      <c r="D23">
+        <v>0.09595119415660298</v>
+      </c>
+      <c r="E23">
+        <v>0.1435271790120057</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>43083</v>
+      </c>
+      <c r="B24">
+        <v>0.1803027584573359</v>
+      </c>
+      <c r="C24">
+        <v>0.57956313511655</v>
+      </c>
+      <c r="D24">
+        <v>0.09662144394791267</v>
+      </c>
+      <c r="E24">
+        <v>0.1435126624782014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>43084</v>
+      </c>
+      <c r="B25">
+        <v>0.1786791042814642</v>
+      </c>
+      <c r="C25">
+        <v>0.5806495165575525</v>
+      </c>
+      <c r="D25">
+        <v>0.09696935228086233</v>
+      </c>
+      <c r="E25">
+        <v>0.1437020268801208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>43087</v>
+      </c>
+      <c r="B26">
+        <v>0.1784781171520957</v>
+      </c>
+      <c r="C26">
+        <v>0.5806183089797839</v>
+      </c>
+      <c r="D26">
+        <v>0.09726297983489669</v>
+      </c>
+      <c r="E26">
+        <v>0.1436405940332237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B27">
+        <v>0.180083386605528</v>
+      </c>
+      <c r="C27">
+        <v>0.5791932355846754</v>
+      </c>
+      <c r="D27">
+        <v>0.09742831054942014</v>
+      </c>
+      <c r="E27">
+        <v>0.1432950672603763</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>43089</v>
+      </c>
+      <c r="B28">
+        <v>0.1795138170918344</v>
+      </c>
+      <c r="C28">
+        <v>0.5790557955472674</v>
+      </c>
+      <c r="D28">
+        <v>0.09814990057762155</v>
+      </c>
+      <c r="E28">
+        <v>0.1432804867832766</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B29">
+        <v>0.1807015453295584</v>
+      </c>
+      <c r="C29">
+        <v>0.5778972390235514</v>
+      </c>
+      <c r="D29">
+        <v>0.09838801071476852</v>
+      </c>
+      <c r="E29">
+        <v>0.1430132049321217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B30">
+        <v>0.1801977021951849</v>
+      </c>
+      <c r="C30">
+        <v>0.5776794529433431</v>
+      </c>
+      <c r="D30">
+        <v>0.09868990993362353</v>
+      </c>
+      <c r="E30">
+        <v>0.1434329349278485</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MVPLT/data/张炀-每日权重.xlsx
+++ b/MVPLT/data/张炀-每日权重.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1260,18 +1260,238 @@
         <v>43111</v>
       </c>
       <c r="B44">
-        <v>0.1250712785785585</v>
+        <v>0.1250655011510232</v>
       </c>
       <c r="C44">
-        <v>0.4242373082887085</v>
+        <v>0.4242177114609297</v>
       </c>
       <c r="D44">
-        <v>0.05348937772213086</v>
+        <v>0.05348690688304449</v>
       </c>
       <c r="E44">
-        <v>0.3972020354106021</v>
+        <v>0.3972298805050026</v>
       </c>
       <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B45">
+        <v>0.1252714870171242</v>
+      </c>
+      <c r="C45">
+        <v>0.4240193863954739</v>
+      </c>
+      <c r="D45">
+        <v>0.05370925748406126</v>
+      </c>
+      <c r="E45">
+        <v>0.3969998691033407</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B46">
+        <v>0.1246267574689416</v>
+      </c>
+      <c r="C46">
+        <v>0.4242124389821046</v>
+      </c>
+      <c r="D46">
+        <v>0.05374673699488542</v>
+      </c>
+      <c r="E46">
+        <v>0.3974140665540685</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B47">
+        <v>0.125499040232033</v>
+      </c>
+      <c r="C47">
+        <v>0.4239229152232599</v>
+      </c>
+      <c r="D47">
+        <v>0.05343664339613018</v>
+      </c>
+      <c r="E47">
+        <v>0.3971414011485769</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B48">
+        <v>0.1251285041049656</v>
+      </c>
+      <c r="C48">
+        <v>0.4239296943654414</v>
+      </c>
+      <c r="D48">
+        <v>0.05366741759276326</v>
+      </c>
+      <c r="E48">
+        <v>0.3972743839368298</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B49">
+        <v>0.12567164002251</v>
+      </c>
+      <c r="C49">
+        <v>0.4235337838874988</v>
+      </c>
+      <c r="D49">
+        <v>0.05368639220451558</v>
+      </c>
+      <c r="E49">
+        <v>0.3971081838854754</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B50">
+        <v>0.1259009291732492</v>
+      </c>
+      <c r="C50">
+        <v>0.4236002640200272</v>
+      </c>
+      <c r="D50">
+        <v>0.05336030704023186</v>
+      </c>
+      <c r="E50">
+        <v>0.3971384997664917</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B51">
+        <v>0.1271405600382467</v>
+      </c>
+      <c r="C51">
+        <v>0.4229237336441252</v>
+      </c>
+      <c r="D51">
+        <v>0.05348878009276892</v>
+      </c>
+      <c r="E51">
+        <v>0.3964469262248593</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B52">
+        <v>0.1279833868071061</v>
+      </c>
+      <c r="C52">
+        <v>0.4223572604646204</v>
+      </c>
+      <c r="D52">
+        <v>0.05379774005706638</v>
+      </c>
+      <c r="E52">
+        <v>0.3958616126712072</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B53">
+        <v>0.1281882293899955</v>
+      </c>
+      <c r="C53">
+        <v>0.4219655275500001</v>
+      </c>
+      <c r="D53">
+        <v>0.05440752638325876</v>
+      </c>
+      <c r="E53">
+        <v>0.3954387166767458</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B54">
+        <v>0.127654059292287</v>
+      </c>
+      <c r="C54">
+        <v>0.4222753028136344</v>
+      </c>
+      <c r="D54">
+        <v>0.05437860161796995</v>
+      </c>
+      <c r="E54">
+        <v>0.3956920362761086</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B55">
+        <v>0.1279171687883331</v>
+      </c>
+      <c r="C55">
+        <v>0.4220445643236481</v>
+      </c>
+      <c r="D55">
+        <v>0.05464501252341829</v>
+      </c>
+      <c r="E55">
+        <v>0.3953932543646005</v>
+      </c>
+      <c r="F55">
         <v>0</v>
       </c>
     </row>

--- a/MVPLT/data/张炀-每日权重.xlsx
+++ b/MVPLT/data/张炀-每日权重.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1480,19 +1480,599 @@
         <v>43126</v>
       </c>
       <c r="B55">
-        <v>0.1279171687883331</v>
+        <v>0.1279112104738636</v>
       </c>
       <c r="C55">
-        <v>0.4220445643236481</v>
+        <v>0.4220249057097325</v>
       </c>
       <c r="D55">
-        <v>0.05464501252341829</v>
+        <v>0.05464246718746463</v>
       </c>
       <c r="E55">
-        <v>0.3953932543646005</v>
+        <v>0.3954214166289394</v>
       </c>
       <c r="F55">
         <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B56">
+        <v>0.09837371997880485</v>
+      </c>
+      <c r="C56">
+        <v>0.6425813683599433</v>
+      </c>
+      <c r="D56">
+        <v>0.03261949215099411</v>
+      </c>
+      <c r="E56">
+        <v>0.2</v>
+      </c>
+      <c r="F56">
+        <v>0.02642541951025774</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B57">
+        <v>0.09770064879867399</v>
+      </c>
+      <c r="C57">
+        <v>0.6432508857145642</v>
+      </c>
+      <c r="D57">
+        <v>0.0323715576607955</v>
+      </c>
+      <c r="E57">
+        <v>0.2002248524569338</v>
+      </c>
+      <c r="F57">
+        <v>0.02645205536903238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B58">
+        <v>0.09753303444723146</v>
+      </c>
+      <c r="C58">
+        <v>0.6434487394204402</v>
+      </c>
+      <c r="D58">
+        <v>0.03236120245769097</v>
+      </c>
+      <c r="E58">
+        <v>0.2002100296487684</v>
+      </c>
+      <c r="F58">
+        <v>0.02644699402586892</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B59">
+        <v>0.09628853301617817</v>
+      </c>
+      <c r="C59">
+        <v>0.6442088333397875</v>
+      </c>
+      <c r="D59">
+        <v>0.03264921904866611</v>
+      </c>
+      <c r="E59">
+        <v>0.200386251080713</v>
+      </c>
+      <c r="F59">
+        <v>0.02646716351465508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B60">
+        <v>0.09675950671005369</v>
+      </c>
+      <c r="C60">
+        <v>0.6440881140140036</v>
+      </c>
+      <c r="D60">
+        <v>0.03237433343317039</v>
+      </c>
+      <c r="E60">
+        <v>0.200322421745448</v>
+      </c>
+      <c r="F60">
+        <v>0.0264556240973243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B61">
+        <v>0.09679554806539348</v>
+      </c>
+      <c r="C61">
+        <v>0.6442964150084333</v>
+      </c>
+      <c r="D61">
+        <v>0.03203213530433591</v>
+      </c>
+      <c r="E61">
+        <v>0.2004169482996217</v>
+      </c>
+      <c r="F61">
+        <v>0.02645895332221553</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B62">
+        <v>0.09376517377301255</v>
+      </c>
+      <c r="C62">
+        <v>0.6468518550179977</v>
+      </c>
+      <c r="D62">
+        <v>0.0318261995146992</v>
+      </c>
+      <c r="E62">
+        <v>0.2010211360438109</v>
+      </c>
+      <c r="F62">
+        <v>0.02653563565047968</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B63">
+        <v>0.09227951259005779</v>
+      </c>
+      <c r="C63">
+        <v>0.6483507862587162</v>
+      </c>
+      <c r="D63">
+        <v>0.03135304131493729</v>
+      </c>
+      <c r="E63">
+        <v>0.20143011585241</v>
+      </c>
+      <c r="F63">
+        <v>0.02658654398387873</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
+        <v>43139</v>
+      </c>
+      <c r="B64">
+        <v>0.09188417655169392</v>
+      </c>
+      <c r="C64">
+        <v>0.6487799016566262</v>
+      </c>
+      <c r="D64">
+        <v>0.03117501755093682</v>
+      </c>
+      <c r="E64">
+        <v>0.2015602864621088</v>
+      </c>
+      <c r="F64">
+        <v>0.02660061777863408</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B65">
+        <v>0.08848220061727995</v>
+      </c>
+      <c r="C65">
+        <v>0.6517379615386041</v>
+      </c>
+      <c r="D65">
+        <v>0.03059558225996702</v>
+      </c>
+      <c r="E65">
+        <v>0.202467117238611</v>
+      </c>
+      <c r="F65">
+        <v>0.02671713834553781</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
+        <v>43143</v>
+      </c>
+      <c r="B66">
+        <v>0.08972974344158034</v>
+      </c>
+      <c r="C66">
+        <v>0.6508357820842906</v>
+      </c>
+      <c r="D66">
+        <v>0.03063960142140817</v>
+      </c>
+      <c r="E66">
+        <v>0.202131313617327</v>
+      </c>
+      <c r="F66">
+        <v>0.02666355943539393</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B67">
+        <v>0.09056202148608324</v>
+      </c>
+      <c r="C67">
+        <v>0.6502304855785507</v>
+      </c>
+      <c r="D67">
+        <v>0.03065045153588363</v>
+      </c>
+      <c r="E67">
+        <v>0.2019239391446521</v>
+      </c>
+      <c r="F67">
+        <v>0.02663310225483035</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B68">
+        <v>0.09105395175534024</v>
+      </c>
+      <c r="C68">
+        <v>0.6495237929487138</v>
+      </c>
+      <c r="D68">
+        <v>0.03113911193863702</v>
+      </c>
+      <c r="E68">
+        <v>0.2016848051003864</v>
+      </c>
+      <c r="F68">
+        <v>0.02659833825692256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>43153</v>
+      </c>
+      <c r="B69">
+        <v>0.09269052458500626</v>
+      </c>
+      <c r="C69">
+        <v>0.6478936454126208</v>
+      </c>
+      <c r="D69">
+        <v>0.03172946529547999</v>
+      </c>
+      <c r="E69">
+        <v>0.2011790172111389</v>
+      </c>
+      <c r="F69">
+        <v>0.02650734749575398</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>43154</v>
+      </c>
+      <c r="B70">
+        <v>0.09301499098981336</v>
+      </c>
+      <c r="C70">
+        <v>0.6475689421287609</v>
+      </c>
+      <c r="D70">
+        <v>0.0318943088388912</v>
+      </c>
+      <c r="E70">
+        <v>0.2010363301908887</v>
+      </c>
+      <c r="F70">
+        <v>0.02648542785164577</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B71">
+        <v>0.09409810333052868</v>
+      </c>
+      <c r="C71">
+        <v>0.64694307018054</v>
+      </c>
+      <c r="D71">
+        <v>0.03196609757171052</v>
+      </c>
+      <c r="E71">
+        <v>0.2005769133668454</v>
+      </c>
+      <c r="F71">
+        <v>0.0264158155503754</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B72">
+        <v>0.09308467219000253</v>
+      </c>
+      <c r="C72">
+        <v>0.6479671637453406</v>
+      </c>
+      <c r="D72">
+        <v>0.03174161966616588</v>
+      </c>
+      <c r="E72">
+        <v>0.2007685630334842</v>
+      </c>
+      <c r="F72">
+        <v>0.02643798136500667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B73">
+        <v>0.0925938098232565</v>
+      </c>
+      <c r="C73">
+        <v>0.648732188076966</v>
+      </c>
+      <c r="D73">
+        <v>0.03129081347826174</v>
+      </c>
+      <c r="E73">
+        <v>0.2009273788113695</v>
+      </c>
+      <c r="F73">
+        <v>0.02645580981014607</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B74">
+        <v>0.09322789105169887</v>
+      </c>
+      <c r="C74">
+        <v>0.648413278955268</v>
+      </c>
+      <c r="D74">
+        <v>0.03110623336100767</v>
+      </c>
+      <c r="E74">
+        <v>0.2008147512153426</v>
+      </c>
+      <c r="F74">
+        <v>0.02643784541668279</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B75">
+        <v>0.09260190043129438</v>
+      </c>
+      <c r="C75">
+        <v>0.64879443037767</v>
+      </c>
+      <c r="D75">
+        <v>0.03116646137940393</v>
+      </c>
+      <c r="E75">
+        <v>0.2009806395890167</v>
+      </c>
+      <c r="F75">
+        <v>0.026456568222615</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B76">
+        <v>0.09260914526863195</v>
+      </c>
+      <c r="C76">
+        <v>0.6484348801282448</v>
+      </c>
+      <c r="D76">
+        <v>0.03157540584050234</v>
+      </c>
+      <c r="E76">
+        <v>0.2009386472217715</v>
+      </c>
+      <c r="F76">
+        <v>0.02644192154084934</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B77">
+        <v>0.09363235945297396</v>
+      </c>
+      <c r="C77">
+        <v>0.6476895570356178</v>
+      </c>
+      <c r="D77">
+        <v>0.03158140239328951</v>
+      </c>
+      <c r="E77">
+        <v>0.2006904664735541</v>
+      </c>
+      <c r="F77">
+        <v>0.02640621464456443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B78">
+        <v>0.09297572730262935</v>
+      </c>
+      <c r="C78">
+        <v>0.6485555753862137</v>
+      </c>
+      <c r="D78">
+        <v>0.03113711488459955</v>
+      </c>
+      <c r="E78">
+        <v>0.2009007564788609</v>
+      </c>
+      <c r="F78">
+        <v>0.02643082594769654</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B79">
+        <v>0.09377696455102146</v>
+      </c>
+      <c r="C79">
+        <v>0.6482145989262583</v>
+      </c>
+      <c r="D79">
+        <v>0.03083782315327887</v>
+      </c>
+      <c r="E79">
+        <v>0.2007612518377949</v>
+      </c>
+      <c r="F79">
+        <v>0.02640936153164648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B80">
+        <v>0.09446896229254496</v>
+      </c>
+      <c r="C80">
+        <v>0.6474057699747175</v>
+      </c>
+      <c r="D80">
+        <v>0.03126391050345213</v>
+      </c>
+      <c r="E80">
+        <v>0.2004907165576789</v>
+      </c>
+      <c r="F80">
+        <v>0.02637064067160641</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B81">
+        <v>0.09505788413097575</v>
+      </c>
+      <c r="C81">
+        <v>0.6471697014590834</v>
+      </c>
+      <c r="D81">
+        <v>0.03103322661782813</v>
+      </c>
+      <c r="E81">
+        <v>0.2003907515211528</v>
+      </c>
+      <c r="F81">
+        <v>0.02634843627095994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B82">
+        <v>0.0943642054473445</v>
+      </c>
+      <c r="C82">
+        <v>0.647663230760516</v>
+      </c>
+      <c r="D82">
+        <v>0.03099244755109249</v>
+      </c>
+      <c r="E82">
+        <v>0.2006064077460128</v>
+      </c>
+      <c r="F82">
+        <v>0.02637370849503412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B83">
+        <v>0.09384366367392752</v>
+      </c>
+      <c r="C83">
+        <v>0.6479780284713167</v>
+      </c>
+      <c r="D83">
+        <v>0.0310798057094466</v>
+      </c>
+      <c r="E83">
+        <v>0.2007137321071658</v>
+      </c>
+      <c r="F83">
+        <v>0.02638477003814337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B84">
+        <v>0.0941521228875023</v>
+      </c>
+      <c r="C84">
+        <v>0.6477891316993807</v>
+      </c>
+      <c r="D84">
+        <v>0.03104587105794586</v>
+      </c>
+      <c r="E84">
+        <v>0.2006407501047408</v>
+      </c>
+      <c r="F84">
+        <v>0.02637212425043036</v>
       </c>
     </row>
   </sheetData>

--- a/MVPLT/data/张炀-每日权重.xlsx
+++ b/MVPLT/data/张炀-每日权重.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1560,19 +1560,19 @@
         <v>43132</v>
       </c>
       <c r="B59">
-        <v>0.09628853301617817</v>
+        <v>0.09628343631727264</v>
       </c>
       <c r="C59">
-        <v>0.6442088333397875</v>
+        <v>0.6441747343837336</v>
       </c>
       <c r="D59">
-        <v>0.03264921904866611</v>
+        <v>0.03264749087570742</v>
       </c>
       <c r="E59">
-        <v>0.200386251080713</v>
+        <v>0.2003756443308273</v>
       </c>
       <c r="F59">
-        <v>0.02646716351465508</v>
+        <v>0.02651869409245891</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1580,19 +1580,19 @@
         <v>43133</v>
       </c>
       <c r="B60">
-        <v>0.09675950671005369</v>
+        <v>0.09675438731465257</v>
       </c>
       <c r="C60">
-        <v>0.6440881140140036</v>
+        <v>0.6440540363110375</v>
       </c>
       <c r="D60">
-        <v>0.03237433343317039</v>
+        <v>0.03237262055740937</v>
       </c>
       <c r="E60">
-        <v>0.200322421745448</v>
+        <v>0.2003118229968651</v>
       </c>
       <c r="F60">
-        <v>0.0264556240973243</v>
+        <v>0.02650713282003538</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1600,19 +1600,19 @@
         <v>43136</v>
       </c>
       <c r="B61">
-        <v>0.09679554806539348</v>
+        <v>0.09679042611866007</v>
       </c>
       <c r="C61">
-        <v>0.6442964150084333</v>
+        <v>0.6442623219950234</v>
       </c>
       <c r="D61">
-        <v>0.03203213530433591</v>
+        <v>0.03203044032048525</v>
       </c>
       <c r="E61">
-        <v>0.2004169482996217</v>
+        <v>0.2004063432154605</v>
       </c>
       <c r="F61">
-        <v>0.02645895332221553</v>
+        <v>0.02651046835037069</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1620,19 +1620,19 @@
         <v>43137</v>
       </c>
       <c r="B62">
-        <v>0.09376517377301255</v>
+        <v>0.09376019780011786</v>
       </c>
       <c r="C62">
-        <v>0.6468518550179977</v>
+        <v>0.6468175275895087</v>
       </c>
       <c r="D62">
-        <v>0.0318261995146992</v>
+        <v>0.03182451054746592</v>
       </c>
       <c r="E62">
-        <v>0.2010211360438109</v>
+        <v>0.2010104681627207</v>
       </c>
       <c r="F62">
-        <v>0.02653563565047968</v>
+        <v>0.02658729590018676</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1640,19 +1640,19 @@
         <v>43138</v>
       </c>
       <c r="B63">
-        <v>0.09227951259005779</v>
+        <v>0.09227460606431234</v>
       </c>
       <c r="C63">
-        <v>0.6483507862587162</v>
+        <v>0.6483163132783594</v>
       </c>
       <c r="D63">
-        <v>0.03135304131493729</v>
+        <v>0.03135137426555556</v>
       </c>
       <c r="E63">
-        <v>0.20143011585241</v>
+        <v>0.2014194057606291</v>
       </c>
       <c r="F63">
-        <v>0.02658654398387873</v>
+        <v>0.02663830063114371</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1660,19 +1660,19 @@
         <v>43139</v>
       </c>
       <c r="B64">
-        <v>0.09188417655169392</v>
+        <v>0.09187928846002573</v>
       </c>
       <c r="C64">
-        <v>0.6487799016566262</v>
+        <v>0.6487453876004439</v>
       </c>
       <c r="D64">
-        <v>0.03117501755093682</v>
+        <v>0.03117335908971677</v>
       </c>
       <c r="E64">
-        <v>0.2015602864621088</v>
+        <v>0.2015495637762899</v>
       </c>
       <c r="F64">
-        <v>0.02660061777863408</v>
+        <v>0.02665240107352368</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1680,19 +1680,19 @@
         <v>43140</v>
       </c>
       <c r="B65">
-        <v>0.08848220061727995</v>
+        <v>0.08847747288751276</v>
       </c>
       <c r="C65">
-        <v>0.6517379615386041</v>
+        <v>0.6517031382527942</v>
       </c>
       <c r="D65">
-        <v>0.03059558225996702</v>
+        <v>0.03059394749451153</v>
       </c>
       <c r="E65">
-        <v>0.202467117238611</v>
+        <v>0.2024562991327053</v>
       </c>
       <c r="F65">
-        <v>0.02671713834553781</v>
+        <v>0.02676914223247605</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1700,19 +1700,19 @@
         <v>43143</v>
       </c>
       <c r="B66">
-        <v>0.08972974344158034</v>
+        <v>0.08972495866804377</v>
       </c>
       <c r="C66">
-        <v>0.6508357820842906</v>
+        <v>0.6508010767379101</v>
       </c>
       <c r="D66">
-        <v>0.03063960142140817</v>
+        <v>0.03063796758686871</v>
       </c>
       <c r="E66">
-        <v>0.202131313617327</v>
+        <v>0.2021205351115249</v>
       </c>
       <c r="F66">
-        <v>0.02666355943539393</v>
+        <v>0.02671546189565252</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1720,19 +1720,19 @@
         <v>43144</v>
       </c>
       <c r="B67">
-        <v>0.09056202148608324</v>
+        <v>0.09055719784786284</v>
       </c>
       <c r="C67">
-        <v>0.6502304855785507</v>
+        <v>0.6501958521133206</v>
       </c>
       <c r="D67">
-        <v>0.03065045153588363</v>
+        <v>0.03064881898962335</v>
       </c>
       <c r="E67">
-        <v>0.2019239391446521</v>
+        <v>0.2019131839957002</v>
       </c>
       <c r="F67">
-        <v>0.02663310225483035</v>
+        <v>0.02668494705349293</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1740,19 +1740,19 @@
         <v>43145</v>
       </c>
       <c r="B68">
-        <v>0.09105395175534024</v>
+        <v>0.09104910824538205</v>
       </c>
       <c r="C68">
-        <v>0.6495237929487138</v>
+        <v>0.6494892422795929</v>
       </c>
       <c r="D68">
-        <v>0.03113911193863702</v>
+        <v>0.03113745552948775</v>
       </c>
       <c r="E68">
-        <v>0.2016848051003864</v>
+        <v>0.2016740767097664</v>
       </c>
       <c r="F68">
-        <v>0.02659833825692256</v>
+        <v>0.02665011723577076</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1760,19 +1760,19 @@
         <v>43153</v>
       </c>
       <c r="B69">
-        <v>0.09269052458500626</v>
+        <v>0.09268561088561507</v>
       </c>
       <c r="C69">
-        <v>0.6478936454126208</v>
+        <v>0.6478592993494684</v>
       </c>
       <c r="D69">
-        <v>0.03172946529547999</v>
+        <v>0.03172778325672788</v>
       </c>
       <c r="E69">
-        <v>0.2011790172111389</v>
+        <v>0.201168352332298</v>
       </c>
       <c r="F69">
-        <v>0.02650734749575398</v>
+        <v>0.02655895417589056</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1780,19 +1780,19 @@
         <v>43154</v>
       </c>
       <c r="B70">
-        <v>0.09301499098981336</v>
+        <v>0.0930100641671254</v>
       </c>
       <c r="C70">
-        <v>0.6475689421287609</v>
+        <v>0.6475346416646944</v>
       </c>
       <c r="D70">
-        <v>0.0318943088388912</v>
+        <v>0.03189261945954781</v>
       </c>
       <c r="E70">
-        <v>0.2010363301908887</v>
+        <v>0.2010256816885113</v>
       </c>
       <c r="F70">
-        <v>0.02648542785164577</v>
+        <v>0.02653699302012099</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1800,19 +1800,19 @@
         <v>43157</v>
       </c>
       <c r="B71">
-        <v>0.09409810333052868</v>
+        <v>0.09409313223687722</v>
       </c>
       <c r="C71">
-        <v>0.64694307018054</v>
+        <v>0.646908892928553</v>
       </c>
       <c r="D71">
-        <v>0.03196609757171052</v>
+        <v>0.03196440883985434</v>
       </c>
       <c r="E71">
-        <v>0.2005769133668454</v>
+        <v>0.200566317121168</v>
       </c>
       <c r="F71">
-        <v>0.0264158155503754</v>
+        <v>0.02646724887354741</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1820,19 +1820,19 @@
         <v>43158</v>
       </c>
       <c r="B72">
-        <v>0.09308467219000253</v>
+        <v>0.09307975050858372</v>
       </c>
       <c r="C72">
-        <v>0.6479671637453406</v>
+        <v>0.6479329036692746</v>
       </c>
       <c r="D72">
-        <v>0.03174161966616588</v>
+        <v>0.03173994138620809</v>
       </c>
       <c r="E72">
-        <v>0.2007685630334842</v>
+        <v>0.2007579477637205</v>
       </c>
       <c r="F72">
-        <v>0.02643798136500667</v>
+        <v>0.02648945667221294</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1840,19 +1840,19 @@
         <v>43159</v>
       </c>
       <c r="B73">
-        <v>0.0925938098232565</v>
+        <v>0.09258891079402751</v>
       </c>
       <c r="C73">
-        <v>0.648732188076966</v>
+        <v>0.6486978644223153</v>
       </c>
       <c r="D73">
-        <v>0.03129081347826174</v>
+        <v>0.03128915791823973</v>
       </c>
       <c r="E73">
-        <v>0.2009273788113695</v>
+        <v>0.200916747980825</v>
       </c>
       <c r="F73">
-        <v>0.02645580981014607</v>
+        <v>0.02650731888459239</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1860,19 +1860,19 @@
         <v>43160</v>
       </c>
       <c r="B74">
-        <v>0.09322789105169887</v>
+        <v>0.09322296182319095</v>
       </c>
       <c r="C74">
-        <v>0.648413278955268</v>
+        <v>0.6483789954679609</v>
       </c>
       <c r="D74">
-        <v>0.03110623336100767</v>
+        <v>0.0311045886843929</v>
       </c>
       <c r="E74">
-        <v>0.2008147512153426</v>
+        <v>0.2008041335580585</v>
       </c>
       <c r="F74">
-        <v>0.02643784541668279</v>
+        <v>0.02648932046639679</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1880,19 +1880,19 @@
         <v>43161</v>
       </c>
       <c r="B75">
-        <v>0.09260190043129438</v>
+        <v>0.09259700083355485</v>
       </c>
       <c r="C75">
-        <v>0.64879443037767</v>
+        <v>0.648760102445849</v>
       </c>
       <c r="D75">
-        <v>0.03116646137940393</v>
+        <v>0.03116481235143569</v>
       </c>
       <c r="E75">
-        <v>0.2009806395890167</v>
+        <v>0.2009700056356871</v>
       </c>
       <c r="F75">
-        <v>0.026456568222615</v>
+        <v>0.0265080787334733</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1900,19 +1900,19 @@
         <v>43164</v>
       </c>
       <c r="B76">
-        <v>0.09260914526863195</v>
+        <v>0.09260424800011202</v>
       </c>
       <c r="C76">
-        <v>0.6484348801282448</v>
+        <v>0.6484005902131779</v>
       </c>
       <c r="D76">
-        <v>0.03157540584050234</v>
+        <v>0.03157373609999693</v>
       </c>
       <c r="E76">
-        <v>0.2009386472217715</v>
+        <v>0.2009280213758184</v>
       </c>
       <c r="F76">
-        <v>0.02644192154084934</v>
+        <v>0.02649340431089476</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1920,19 +1920,19 @@
         <v>43165</v>
       </c>
       <c r="B77">
-        <v>0.09363235945297396</v>
+        <v>0.09362741476175233</v>
       </c>
       <c r="C77">
-        <v>0.6476895570356178</v>
+        <v>0.6476553527830953</v>
       </c>
       <c r="D77">
-        <v>0.03158140239328951</v>
+        <v>0.03157973459078946</v>
       </c>
       <c r="E77">
-        <v>0.2006904664735541</v>
+        <v>0.2006798680822113</v>
       </c>
       <c r="F77">
-        <v>0.02640621464456443</v>
+        <v>0.02645762978215153</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1940,19 +1940,19 @@
         <v>43166</v>
       </c>
       <c r="B78">
-        <v>0.09297572730262935</v>
+        <v>0.09297081271189134</v>
       </c>
       <c r="C78">
-        <v>0.6485555753862137</v>
+        <v>0.6485212934793511</v>
       </c>
       <c r="D78">
-        <v>0.03113711488459955</v>
+        <v>0.03113546901227502</v>
       </c>
       <c r="E78">
-        <v>0.2009007564788609</v>
+        <v>0.2008901370943646</v>
       </c>
       <c r="F78">
-        <v>0.02643082594769654</v>
+        <v>0.02648228770211804</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1960,19 +1960,19 @@
         <v>43167</v>
       </c>
       <c r="B79">
-        <v>0.09377696455102146</v>
+        <v>0.09377201163310792</v>
       </c>
       <c r="C79">
-        <v>0.6482145989262583</v>
+        <v>0.648180362867177</v>
       </c>
       <c r="D79">
-        <v>0.03083782315327887</v>
+        <v>0.03083619442486521</v>
       </c>
       <c r="E79">
-        <v>0.2007612518377949</v>
+        <v>0.2007506484448899</v>
       </c>
       <c r="F79">
-        <v>0.02640936153164648</v>
+        <v>0.02646078262996</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1980,19 +1980,19 @@
         <v>43168</v>
       </c>
       <c r="B80">
-        <v>0.09446896229254496</v>
+        <v>0.09446398014119153</v>
       </c>
       <c r="C80">
-        <v>0.6474057699747175</v>
+        <v>0.6473716267656168</v>
       </c>
       <c r="D80">
-        <v>0.03126391050345213</v>
+        <v>0.03126226169171282</v>
       </c>
       <c r="E80">
-        <v>0.2004907165576789</v>
+        <v>0.2004801429780544</v>
       </c>
       <c r="F80">
-        <v>0.02637064067160641</v>
+        <v>0.02642198842342454</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2000,19 +2000,19 @@
         <v>43171</v>
       </c>
       <c r="B81">
-        <v>0.09505788413097575</v>
+        <v>0.09505287514172966</v>
       </c>
       <c r="C81">
-        <v>0.6471697014590834</v>
+        <v>0.6471355994368825</v>
       </c>
       <c r="D81">
-        <v>0.03103322661782813</v>
+        <v>0.03103159135001398</v>
       </c>
       <c r="E81">
-        <v>0.2003907515211528</v>
+        <v>0.2003801921117091</v>
       </c>
       <c r="F81">
-        <v>0.02634843627095994</v>
+        <v>0.02639974195966467</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2020,19 +2020,19 @@
         <v>43172</v>
       </c>
       <c r="B82">
-        <v>0.0943642054473445</v>
+        <v>0.09435922824178557</v>
       </c>
       <c r="C82">
-        <v>0.647663230760516</v>
+        <v>0.6476290699999059</v>
       </c>
       <c r="D82">
-        <v>0.03099244755109249</v>
+        <v>0.0309908128657634</v>
       </c>
       <c r="E82">
-        <v>0.2006064077460128</v>
+        <v>0.2005958268342883</v>
       </c>
       <c r="F82">
-        <v>0.02637370849503412</v>
+        <v>0.02642506205825682</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2040,19 +2040,19 @@
         <v>43173</v>
       </c>
       <c r="B83">
-        <v>0.09384366367392752</v>
+        <v>0.09383871184826194</v>
       </c>
       <c r="C83">
-        <v>0.6479780284713167</v>
+        <v>0.6479438367730549</v>
       </c>
       <c r="D83">
-        <v>0.0310798057094466</v>
+        <v>0.03107816572893467</v>
       </c>
       <c r="E83">
-        <v>0.2007137321071658</v>
+        <v>0.2007031410947184</v>
       </c>
       <c r="F83">
-        <v>0.02638477003814337</v>
+        <v>0.0264361445550301</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2060,19 +2060,299 @@
         <v>43174</v>
       </c>
       <c r="B84">
-        <v>0.0941521228875023</v>
+        <v>0.09414715716644906</v>
       </c>
       <c r="C84">
-        <v>0.6477891316993807</v>
+        <v>0.6477549663504678</v>
       </c>
       <c r="D84">
-        <v>0.03104587105794586</v>
+        <v>0.03104423365317154</v>
       </c>
       <c r="E84">
-        <v>0.2006407501047408</v>
+        <v>0.2006301680173021</v>
       </c>
       <c r="F84">
-        <v>0.02637212425043036</v>
+        <v>0.02642347481260945</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B85">
+        <v>0.0947309621017156</v>
+      </c>
+      <c r="C85">
+        <v>0.6342668089771044</v>
+      </c>
+      <c r="D85">
+        <v>0.02116915144579878</v>
+      </c>
+      <c r="E85">
+        <v>0.2</v>
+      </c>
+      <c r="F85">
+        <v>0.04983307747538119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B86">
+        <v>0.09503068441231735</v>
+      </c>
+      <c r="C86">
+        <v>0.6341653317036535</v>
+      </c>
+      <c r="D86">
+        <v>0.0210045011244688</v>
+      </c>
+      <c r="E86">
+        <v>0.1999868768121194</v>
+      </c>
+      <c r="F86">
+        <v>0.04981260594744093</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B87">
+        <v>0.0950983780761035</v>
+      </c>
+      <c r="C87">
+        <v>0.6340440542545196</v>
+      </c>
+      <c r="D87">
+        <v>0.02122102593145902</v>
+      </c>
+      <c r="E87">
+        <v>0.1998611806870915</v>
+      </c>
+      <c r="F87">
+        <v>0.0497753610508264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B88">
+        <v>0.09460998613167011</v>
+      </c>
+      <c r="C88">
+        <v>0.6342265088158207</v>
+      </c>
+      <c r="D88">
+        <v>0.02156490764135417</v>
+      </c>
+      <c r="E88">
+        <v>0.199835534287239</v>
+      </c>
+      <c r="F88">
+        <v>0.04976306312391594</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2">
+        <v>43181</v>
+      </c>
+      <c r="B89">
+        <v>0.0938325435460983</v>
+      </c>
+      <c r="C89">
+        <v>0.6350208235279253</v>
+      </c>
+      <c r="D89">
+        <v>0.02142385837861012</v>
+      </c>
+      <c r="E89">
+        <v>0.1999396197347679</v>
+      </c>
+      <c r="F89">
+        <v>0.04978315481259837</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B90">
+        <v>0.09073440732915793</v>
+      </c>
+      <c r="C90">
+        <v>0.637419713492843</v>
+      </c>
+      <c r="D90">
+        <v>0.02169209497873737</v>
+      </c>
+      <c r="E90">
+        <v>0.2002894605007407</v>
+      </c>
+      <c r="F90">
+        <v>0.04986432369852076</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B91">
+        <v>0.09072828790137714</v>
+      </c>
+      <c r="C91">
+        <v>0.63753486139306</v>
+      </c>
+      <c r="D91">
+        <v>0.02160407219336389</v>
+      </c>
+      <c r="E91">
+        <v>0.2002865838479</v>
+      </c>
+      <c r="F91">
+        <v>0.04984619466429892</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B92">
+        <v>0.09174838633712279</v>
+      </c>
+      <c r="C92">
+        <v>0.6367522456890503</v>
+      </c>
+      <c r="D92">
+        <v>0.02156790582608293</v>
+      </c>
+      <c r="E92">
+        <v>0.2001302434810593</v>
+      </c>
+      <c r="F92">
+        <v>0.04980121866668479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2">
+        <v>43187</v>
+      </c>
+      <c r="B93">
+        <v>0.09040528377223153</v>
+      </c>
+      <c r="C93">
+        <v>0.6378447162947321</v>
+      </c>
+      <c r="D93">
+        <v>0.02145421495100335</v>
+      </c>
+      <c r="E93">
+        <v>0.2004269170136205</v>
+      </c>
+      <c r="F93">
+        <v>0.04986886796841259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B94">
+        <v>0.09141654861376279</v>
+      </c>
+      <c r="C94">
+        <v>0.6370363314474893</v>
+      </c>
+      <c r="D94">
+        <v>0.02156456996236575</v>
+      </c>
+      <c r="E94">
+        <v>0.2001810291863537</v>
+      </c>
+      <c r="F94">
+        <v>0.0498015207900285</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B95">
+        <v>0.09174642202259001</v>
+      </c>
+      <c r="C95">
+        <v>0.6368732397771981</v>
+      </c>
+      <c r="D95">
+        <v>0.02154932585656869</v>
+      </c>
+      <c r="E95">
+        <v>0.2000646965056775</v>
+      </c>
+      <c r="F95">
+        <v>0.0497663158379658</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B96">
+        <v>0.09157524559962242</v>
+      </c>
+      <c r="C96">
+        <v>0.6373423318967932</v>
+      </c>
+      <c r="D96">
+        <v>0.02117948394350864</v>
+      </c>
+      <c r="E96">
+        <v>0.2001364084126176</v>
+      </c>
+      <c r="F96">
+        <v>0.04976653014745794</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B97">
+        <v>0.09092712432158871</v>
+      </c>
+      <c r="C97">
+        <v>0.6378125501466411</v>
+      </c>
+      <c r="D97">
+        <v>0.0212729178971698</v>
+      </c>
+      <c r="E97">
+        <v>0.2002087621048761</v>
+      </c>
+      <c r="F97">
+        <v>0.04977864552972433</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
+        <v>43194</v>
+      </c>
+      <c r="B98">
+        <v>0.09061383326723603</v>
+      </c>
+      <c r="C98">
+        <v>0.6382006846928837</v>
+      </c>
+      <c r="D98">
+        <v>0.02121402300497024</v>
+      </c>
+      <c r="E98">
+        <v>0.2002007212373633</v>
+      </c>
+      <c r="F98">
+        <v>0.04977073779754672</v>
       </c>
     </row>
   </sheetData>
